--- a/dataKZ.xlsx
+++ b/dataKZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Data\PaperGit\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0895DC9-4166-4EB4-BF16-11A1BCA2C06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1711D51-959F-4F5D-B018-81CB160DB41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C46D3E3E-ED26-470B-8147-0D4AE7EDC0A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C46D3E3E-ED26-470B-8147-0D4AE7EDC0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -807,13 +807,19 @@
   </si>
   <si>
     <t>3265</t>
+  </si>
+  <si>
+    <t>Коэф</t>
+  </si>
+  <si>
+    <t>Дельта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot;р.&quot;;\-#,##0&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;;\-#,##0.00&quot;р.&quot;"/>
@@ -827,6 +833,7 @@
     <numFmt numFmtId="173" formatCode="_-* #,##0_ð_._-;\-* #,##0_ð_._-;_-* &quot;-&quot;_ð_._-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0.00_ð_._-;\-* #,##0.00_ð_._-;_-* &quot;-&quot;??_ð_._-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1167,7 +1174,7 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,6 +1258,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="59" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1272,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="60% — акцент3" xfId="1" builtinId="40"/>
@@ -1428,1669 +1436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SID</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>'dataKZ (2)'!$K$2:$K$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>3333.58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3162.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2884.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2605.77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2767.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2838.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2972.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3098.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3143.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3146.31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3327.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3633.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3696.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3921.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4283.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4220.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4339</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4280.1000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4472.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4706</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4874.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5953</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6627.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6816</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7592.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7413</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8208</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8935.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9986.7999999999993</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9572.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9610</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9745.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10283.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10041</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10080.700000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10680.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11086.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12235.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13179.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13745.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5050-4413-9D25-807651C713BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="345666512"/>
-        <c:axId val="345665264"/>
-      </c:areaChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dataKZ (2)'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GREV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'dataKZ (2)'!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>2011-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2011-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2012-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2012-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2013-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2014-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2014-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2015-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2015-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2015-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2016-1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2016-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2016-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'dataKZ (2)'!$G$2:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>285.44097812500002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302.18619374999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>318.93140937499999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>335.676625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>342.58564687500001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>349.49466875000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>356.40369062500002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>363.31271249999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>372.20879843749998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>381.10488437499998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>390.00097031249999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>398.89705624999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>413.567740625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>428.23842500000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>442.90910937500001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>457.57979375000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>462.47867187499997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>467.37754999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>472.276428125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>477.17530625000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>503.32656093750001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>529.47781562499995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>555.62907031249995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>581.78032499999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>617.08042343750003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>652.380521875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>687.68062031249997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>722.98071875000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>711.11949062500003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>699.2582625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>687.39703437499998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>675.53580624999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>706.00309218749999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>736.47037812500002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>766.93766406249995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>797.40494999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>824.94731875000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>852.48968749999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>880.03205624999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>907.57442500000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5050-4413-9D25-807651C713BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dataKZ (2)'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GEXP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'dataKZ (2)'!$A$2:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>2011-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2011-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2012-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2012-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2012-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2013-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2013-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2013-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2013-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2014-1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2014-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2014-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2015-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2015-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2015-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2016-1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2016-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2016-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2016-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2017-1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2017-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2017-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018-1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2018-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2018-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2018-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2019-1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2019-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2019-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'dataKZ (2)'!$H$2:$H$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>293.66795156249998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>308.76311562500001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>323.85827968749999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>338.95344375000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>352.16777031250001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>365.382096875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>378.59642343749999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>391.81074999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>400.9316765625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>410.05260312500002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>419.17352968749998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>428.29445625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>442.96877187500002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>457.64308749999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>472.317403125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>486.99171875000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>493.79218281250002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>500.59264687500001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>507.39311093750001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>514.19357500000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>533.04744531250003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>551.90131562500005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>570.75518593749996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>589.60905624999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>637.29082500000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>684.97259374999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>732.65436250000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>780.33613124999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>762.53419843749998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>744.73226562499997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>726.93033281249996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>709.12840000000006</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>743.33975781250001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>777.55111562499997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>811.76247343750003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>845.97383124999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>895.81000937500005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>945.6461875</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>995.48236562500006</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1045.3185437499999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5050-4413-9D25-807651C713BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="450757264"/>
-        <c:axId val="450762256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="450757264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="450762256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="450762256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="450757264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="345665264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="345666512"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="345666512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345665264"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91DC1DA-D41C-4A20-8583-9518B0B7043C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3468,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C661C268-CC0B-47FD-B2C1-867AB3504E96}">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3817,7 +2162,7 @@
       <c r="E21" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="41" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3834,7 +2179,7 @@
       <c r="E22" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6" ht="28.8">
       <c r="B23" s="20" t="s">
@@ -3849,7 +2194,7 @@
       <c r="E23" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="2:6" ht="28.2" customHeight="1">
       <c r="B24" s="20" t="s">
@@ -3864,7 +2209,7 @@
       <c r="E24" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="2:6" ht="43.2">
       <c r="B25" s="20" t="s">
@@ -3879,7 +2224,7 @@
       <c r="E25" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:6" ht="43.2">
       <c r="B26" s="20" t="s">
@@ -3894,7 +2239,7 @@
       <c r="E26" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6" ht="28.8">
       <c r="B27" s="23" t="s">
@@ -3909,7 +2254,7 @@
       <c r="E27" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="44" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3926,7 +2271,7 @@
       <c r="E28" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="2:6" ht="28.8">
       <c r="B29" s="27" t="s">
@@ -3992,7 +2337,7 @@
       <c r="E32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="46" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4009,7 +2354,7 @@
       <c r="E33" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="20" t="s">
@@ -4071,7 +2416,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="44" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4084,7 +2429,7 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="43"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
@@ -10641,10 +8986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C0E44E-13A9-4F8F-81C7-593647367A9A}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10765,67 +9110,67 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="40">
         <v>5240.2235000000001</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="40">
         <v>28.041849741714302</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="40">
         <v>1096.2149999999999</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="40">
         <v>1469.4556</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="40">
         <v>27.712828077939601</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="40">
         <v>285.44097812500002</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="40">
         <v>293.66795156249998</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="40">
         <v>567.80870000000004</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="40">
         <v>3895.75</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="40">
         <v>3333.58</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="40">
         <v>679.86400000000003</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="40">
         <v>15.042486931991</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="40">
         <v>-1.7188315862955399</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="40">
         <v>0.14789851219185501</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="40">
         <v>-0.69524098428921099</v>
       </c>
-      <c r="R2" s="47">
+      <c r="R2" s="40">
         <v>-1.11607600272903</v>
       </c>
-      <c r="S2" s="47">
+      <c r="S2" s="40">
         <v>5.5</v>
       </c>
-      <c r="T2" s="47">
+      <c r="T2" s="40">
         <v>3.7416274999999599</v>
       </c>
-      <c r="U2" s="47">
+      <c r="U2" s="40">
         <v>67985.433721212699</v>
       </c>
       <c r="V2">
@@ -10837,84 +9182,84 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" s="47">
+      <c r="Y2" s="40">
         <v>7167.1530000000002</v>
       </c>
-      <c r="Z2" s="47">
+      <c r="Z2" s="40">
         <v>1097.1410000000001</v>
       </c>
-      <c r="AA2" s="47">
+      <c r="AA2" s="40">
         <v>6.4</v>
       </c>
-      <c r="AB2" s="47">
+      <c r="AB2" s="40">
         <v>15.2949853309954</v>
       </c>
-      <c r="AC2" s="47">
+      <c r="AC2" s="40">
         <v>10.8355817266191</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="40">
         <v>5999.8073999999997</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="40">
         <v>33.1710981255832</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="40">
         <v>1190.752</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="40">
         <v>1990.202</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="40">
         <v>27.596631076007998</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="40">
         <v>302.18619374999997</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="40">
         <v>308.76311562500001</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="40">
         <v>737.846</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="40">
         <v>3239.1</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="40">
         <v>3162.37</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="40">
         <v>691.92899999999997</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="40">
         <v>14.236794532509901</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="40">
         <v>-1.6866061524698299</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="40">
         <v>-4.4263751296670303E-2</v>
       </c>
-      <c r="Q3" s="47">
+      <c r="Q3" s="40">
         <v>-0.652173334183905</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="40">
         <v>-0.82169510609930196</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="40">
         <v>5.4</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="40">
         <v>1.3055074999999601</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="40">
         <v>70608.422179003304</v>
       </c>
       <c r="V3">
@@ -10926,84 +9271,84 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="47">
+      <c r="Y3" s="40">
         <v>7568.9690000000001</v>
       </c>
-      <c r="Z3" s="47">
+      <c r="Z3" s="40">
         <v>1191.674</v>
       </c>
-      <c r="AA3" s="47">
+      <c r="AA3" s="40">
         <v>5.5</v>
       </c>
-      <c r="AB3" s="47">
+      <c r="AB3" s="40">
         <v>15.7320237406178</v>
       </c>
-      <c r="AC3" s="47">
+      <c r="AC3" s="40">
         <v>12.297828093615101</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="40">
         <v>7424.9085999999998</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="40">
         <v>32.855259659357898</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="40">
         <v>1260.644</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="40">
         <v>2439.473</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="40">
         <v>26.572547401424</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="40">
         <v>318.93140937499999</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="40">
         <v>323.85827968749999</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="40">
         <v>787.30089999999996</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="40">
         <v>2582.4499999999998</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="40">
         <v>2884.07</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="40">
         <v>839.86</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="40">
         <v>15.7719417708007</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="40">
         <v>-1.65438071864411</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="40">
         <v>-0.23642601478519601</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="40">
         <v>-0.60368073312395099</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="40">
         <v>-0.52731420946957097</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="40">
         <v>5.3</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="40">
         <v>1.1039044999999701</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="40">
         <v>75938.238753864702</v>
       </c>
       <c r="V4">
@@ -11015,84 +9360,84 @@
       <c r="X4">
         <v>1</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Y4" s="40">
         <v>8006.9</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="40">
         <v>1260.6559999999999</v>
       </c>
-      <c r="AA4" s="47">
+      <c r="AA4" s="40">
         <v>6.1</v>
       </c>
-      <c r="AB4" s="47">
+      <c r="AB4" s="40">
         <v>15.7444703942849</v>
       </c>
-      <c r="AC4" s="47">
+      <c r="AC4" s="40">
         <v>10.603509651283799</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="40">
         <v>9578.1131999999998</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="40">
         <v>34.730762004357999</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="40">
         <v>1365.598</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="40">
         <v>3326.5517</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="40">
         <v>25.9292213878113</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="40">
         <v>335.676625</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="40">
         <v>338.95344375000002</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="40">
         <v>694.65139999999997</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="40">
         <v>1925.8</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="40">
         <v>2605.77</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="40">
         <v>882.14200000000005</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="40">
         <v>15.5248499286095</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="40">
         <v>-1.62215528481839</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="40">
         <v>-0.42858827827372098</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="40">
         <v>-0.54825895714186101</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="40">
         <v>-0.23293331283984101</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="40">
         <v>5.4</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="40">
         <v>1.10360359999997</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="40">
         <v>81564.121915863201</v>
       </c>
       <c r="V5">
@@ -11104,84 +9449,84 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Y5" s="40">
         <v>7967.5020000000004</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="Z5" s="40">
         <v>1365.6980000000001</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="AA5" s="40">
         <v>6.4</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="AB5" s="40">
         <v>17.139600341487199</v>
       </c>
-      <c r="AC5" s="47">
+      <c r="AC5" s="40">
         <v>7.2524868467831398</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="40">
         <v>6097.7299000000003</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="40">
         <v>27.530383069279601</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="40">
         <v>1307.74</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="40">
         <v>1678.7284</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="40">
         <v>25.372170992334699</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="40">
         <v>342.58564687500001</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="40">
         <v>352.16777031250001</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="40">
         <v>634.73360000000002</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="40">
         <v>2501.2249999999999</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="40">
         <v>2767.72</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="40">
         <v>914.05200000000002</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="40">
         <v>15.4460998957701</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="40">
         <v>-1.63990326393935</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="40">
         <v>-0.45518259152963703</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="40">
         <v>-0.48342026387166998</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="40">
         <v>-0.15584698581960599</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="40">
         <v>5.4</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="40">
         <v>1.00330359999996</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="40">
         <v>76259.339360208105</v>
       </c>
       <c r="V6">
@@ -11193,84 +9538,84 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" s="47">
+      <c r="Y6" s="40">
         <v>8418.5789999999997</v>
       </c>
-      <c r="Z6" s="47">
+      <c r="Z6" s="40">
         <v>1307.7619999999999</v>
       </c>
-      <c r="AA6" s="47">
+      <c r="AA6" s="40">
         <v>6.3</v>
       </c>
-      <c r="AB6" s="47">
+      <c r="AB6" s="40">
         <v>15.5339755082182</v>
       </c>
-      <c r="AC6" s="47">
+      <c r="AC6" s="40">
         <v>10.4093426637346</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="40">
         <v>6751.2717000000002</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="40">
         <v>33.509599384068601</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="40">
         <v>1389.3140000000001</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="40">
         <v>2262.3240999999998</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="40">
         <v>25.9144178968365</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="40">
         <v>349.49466875000002</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="40">
         <v>365.382096875</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="40">
         <v>729.16399999999999</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="40">
         <v>3076.65</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="40">
         <v>2838.8</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="40">
         <v>943.245</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="40">
         <v>15.1356681351779</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="40">
         <v>-1.6576512430603001</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="40">
         <v>-0.48177690478555302</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="40">
         <v>-0.43983738228873198</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="40">
         <v>-7.8760658799371205E-2</v>
       </c>
-      <c r="S7" s="47">
+      <c r="S7" s="40">
         <v>5.3</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="40">
         <v>1.70911469999997</v>
       </c>
-      <c r="U7" s="47">
+      <c r="U7" s="40">
         <v>79262.5496262995</v>
       </c>
       <c r="V7">
@@ -11282,84 +9627,84 @@
       <c r="X7">
         <v>0</v>
       </c>
-      <c r="Y7" s="47">
+      <c r="Y7" s="40">
         <v>8490.3909999999996</v>
       </c>
-      <c r="Z7" s="47">
+      <c r="Z7" s="40">
         <v>1389.424</v>
       </c>
-      <c r="AA7" s="47">
+      <c r="AA7" s="40">
         <v>6.4</v>
       </c>
-      <c r="AB7" s="47">
+      <c r="AB7" s="40">
         <v>16.363368895496102</v>
       </c>
-      <c r="AC7" s="47">
+      <c r="AC7" s="40">
         <v>10.800394835242701</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="40">
         <v>7999.7309999999998</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="40">
         <v>32.622273173935497</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="40">
         <v>1421.732</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="40">
         <v>2609.6941000000002</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="40">
         <v>25.843354448906901</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="40">
         <v>356.40369062500002</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="40">
         <v>378.59642343749999</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="40">
         <v>713.86590000000001</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="40">
         <v>3652.0749999999998</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="40">
         <v>2972.3</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="40">
         <v>949.15499999999997</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="40">
         <v>14.417939245829499</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="40">
         <v>-1.6753992221812599</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="40">
         <v>-0.50837121804146901</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="40">
         <v>-0.36367833964301499</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="40">
         <v>-1.67433177913928E-3</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="40">
         <v>5.2</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="40">
         <v>1.20450539999997</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="40">
         <v>80804.359388436904</v>
       </c>
       <c r="V8">
@@ -11371,84 +9716,84 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="47">
+      <c r="Y8" s="40">
         <v>8481.616</v>
       </c>
-      <c r="Z8" s="47">
+      <c r="Z8" s="40">
         <v>1421.8240000000001</v>
       </c>
-      <c r="AA8" s="47">
+      <c r="AA8" s="40">
         <v>6.3</v>
       </c>
-      <c r="AB8" s="47">
+      <c r="AB8" s="40">
         <v>16.762513181450299</v>
       </c>
-      <c r="AC8" s="47">
+      <c r="AC8" s="40">
         <v>8.9236238068505003</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="40">
         <v>10166.454</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="40">
         <v>35.241977192834398</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="40">
         <v>1528.027</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="40">
         <v>3582.8593999999998</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="40">
         <v>25.083680110739699</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="40">
         <v>363.31271249999998</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="40">
         <v>391.81074999999998</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="40">
         <v>736.66780000000006</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="40">
         <v>4227.5</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="40">
         <v>3098.6</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="40">
         <v>1001.468</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="40">
         <v>14.2227794428753</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="40">
         <v>-1.69314720130222</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="40">
         <v>-0.534965531297385</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="40">
         <v>-0.29746895138827401</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="40">
         <v>7.5411995241095597E-2</v>
       </c>
-      <c r="S9" s="47">
+      <c r="S9" s="40">
         <v>5.3</v>
       </c>
-      <c r="T9" s="47">
+      <c r="T9" s="40">
         <v>2.0133293999999902</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="40">
         <v>83325.594739976805</v>
       </c>
       <c r="V9">
@@ -11460,84 +9805,84 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" s="47">
+      <c r="Y9" s="40">
         <v>8546.9369999999999</v>
       </c>
-      <c r="Z9" s="47">
+      <c r="Z9" s="40">
         <v>1528.077</v>
       </c>
-      <c r="AA9" s="47">
+      <c r="AA9" s="40">
         <v>6.7</v>
       </c>
-      <c r="AB9" s="47">
+      <c r="AB9" s="40">
         <v>17.878065557286799</v>
       </c>
-      <c r="AC9" s="47">
+      <c r="AC9" s="40">
         <v>7.24606436029711</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="40">
         <v>6966.9350000000004</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="40">
         <v>27.271111328008701</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="40">
         <v>1428.316</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="40">
         <v>1899.9606000000001</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="40">
         <v>24.0031242321059</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="40">
         <v>372.20879843749998</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="40">
         <v>400.9316765625</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="40">
         <v>731.30119999999999</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="40">
         <v>4329.8249999999998</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="40">
         <v>3143.08</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="40">
         <v>1039.73</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="40">
         <v>14.3161932719826</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="40">
         <v>-1.71135627849505</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="40">
         <v>-0.53955423550961001</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="40">
         <v>-0.238363686912762</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="40">
         <v>0.19848492623509101</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S10" s="40">
         <v>5.3</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="40">
         <v>1.9106144</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="40">
         <v>76663.336318202098</v>
       </c>
       <c r="V10">
@@ -11549,84 +9894,84 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" s="47">
+      <c r="Y10" s="40">
         <v>9055.2890000000007</v>
       </c>
-      <c r="Z10" s="47">
+      <c r="Z10" s="40">
         <v>1428.375</v>
       </c>
-      <c r="AA10" s="47">
+      <c r="AA10" s="40">
         <v>6.2</v>
       </c>
-      <c r="AB10" s="47">
+      <c r="AB10" s="40">
         <v>15.773279019587299</v>
       </c>
-      <c r="AC10" s="47">
+      <c r="AC10" s="40">
         <v>10.496742111129199</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="40">
         <v>7533.0572000000002</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="40">
         <v>33.459722036890902</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="40">
         <v>1523.4290000000001</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="40">
         <v>2520.54</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="40">
         <v>24.2436785997816</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="40">
         <v>381.10488437499998</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>410.05260312500002</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <v>896.13049999999998</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="40">
         <v>4432.1499999999996</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="40">
         <v>3146.31</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="40">
         <v>1120.5129999999999</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="40">
         <v>14.841029321056901</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="40">
         <v>-1.7295653556878801</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="40">
         <v>-0.54414293972183503</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="40">
         <v>-0.16869361291241899</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="40">
         <v>0.32155785722908298</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="40">
         <v>5.2</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="40">
         <v>0.80210179999997699</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="40">
         <v>79728.231225780604</v>
       </c>
       <c r="V11">
@@ -11638,84 +9983,84 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11" s="47">
+      <c r="Y11" s="40">
         <v>9142.4639999999999</v>
       </c>
-      <c r="Z11" s="47">
+      <c r="Z11" s="40">
         <v>1523.5170000000001</v>
       </c>
-      <c r="AA11" s="47">
+      <c r="AA11" s="40">
         <v>6.1</v>
       </c>
-      <c r="AB11" s="47">
+      <c r="AB11" s="40">
         <v>16.663221206011901</v>
       </c>
-      <c r="AC11" s="47">
+      <c r="AC11" s="40">
         <v>11.8959736559547</v>
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="40">
         <v>9268.0012000000006</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="40">
         <v>32.625503975981403</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="40">
         <v>1453.462</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="40">
         <v>3023.7321000000002</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="40">
         <v>24.703854340191601</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="40">
         <v>390.00097031249999</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="40">
         <v>419.17352968749998</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="40">
         <v>898.26689999999996</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="40">
         <v>4534.4750000000004</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="40">
         <v>3327.3</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="40">
         <v>1212.797</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="40">
         <v>15.762219161670901</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="40">
         <v>-1.7477744328807101</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="40">
         <v>-0.54873164393406004</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="40">
         <v>-7.8436135595891895E-2</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="40">
         <v>0.444630788223076</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="40">
         <v>5.2</v>
       </c>
-      <c r="T12" s="47">
+      <c r="T12" s="40">
         <v>0.60120079999998999</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="40">
         <v>81019.464573144694</v>
       </c>
       <c r="V12">
@@ -11727,84 +10072,84 @@
       <c r="X12">
         <v>1</v>
       </c>
-      <c r="Y12" s="47">
+      <c r="Y12" s="40">
         <v>8766.9069999999992</v>
       </c>
-      <c r="Z12" s="47">
+      <c r="Z12" s="40">
         <v>1453.566</v>
       </c>
-      <c r="AA12" s="47">
+      <c r="AA12" s="40">
         <v>5.9</v>
       </c>
-      <c r="AB12" s="47">
+      <c r="AB12" s="40">
         <v>16.578959945622799</v>
       </c>
-      <c r="AC12" s="47">
+      <c r="AC12" s="40">
         <v>9.6921318913942294</v>
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="40">
         <v>12231.0317</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="40">
         <v>29.5694033725708</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="40">
         <v>1512.16</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="40">
         <v>3616.6430999999998</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="40">
         <v>23.890062192338199</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="40">
         <v>398.89705624999999</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="40">
         <v>428.29445625</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="40">
         <v>990.83630000000005</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="40">
         <v>4636.8</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="40">
         <v>3633.7</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="40">
         <v>1284.2929999999999</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="40">
         <v>16.181783795927199</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="40">
         <v>-1.7659835100735399</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="40">
         <v>-0.55332034814628595</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="40">
         <v>7.9554056987740596E-2</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="40">
         <v>0.56770371921707097</v>
       </c>
-      <c r="S13" s="47">
+      <c r="S13" s="40">
         <v>5.2</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="40">
         <v>1.50711049999999</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="40">
         <v>85059.102146140707</v>
       </c>
       <c r="V13">
@@ -11816,84 +10161,84 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13" s="47">
+      <c r="Y13" s="40">
         <v>8677.6139999999996</v>
       </c>
-      <c r="Z13" s="47">
+      <c r="Z13" s="40">
         <v>1512.261</v>
       </c>
-      <c r="AA13" s="47">
+      <c r="AA13" s="40">
         <v>6.3</v>
       </c>
-      <c r="AB13" s="47">
+      <c r="AB13" s="40">
         <v>17.425988295861099</v>
       </c>
-      <c r="AC13" s="47">
+      <c r="AC13" s="40">
         <v>8.1010034501014303</v>
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="40">
         <v>7933.8275000000003</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="40">
         <v>26.474254702411901</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="40">
         <v>1319.787</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="40">
         <v>2100.4216999999999</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="40">
         <v>22.294877962462401</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="40">
         <v>413.567740625</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="40">
         <v>442.96877187500002</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="40">
         <v>824.08789999999999</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="40">
         <v>5026.75</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="40">
         <v>3696.4</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="40">
         <v>1387.365</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="40">
         <v>17.4708422621697</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="40">
         <v>-1.70749132055221</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="40">
         <v>-0.40913852934415701</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="40">
         <v>9.3505473429690705E-2</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="40">
         <v>0.59947255332309002</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="40">
         <v>3.33330199999999</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="40">
         <v>76690.574905158894</v>
       </c>
       <c r="V14">
@@ -11905,84 +10250,84 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Y14" s="40">
         <v>8929.8169999999991</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="Z14" s="40">
         <v>1319.8869999999999</v>
       </c>
-      <c r="AA14" s="47">
+      <c r="AA14" s="40">
         <v>6.7</v>
       </c>
-      <c r="AB14" s="47">
+      <c r="AB14" s="40">
         <v>14.779552593295</v>
       </c>
-      <c r="AC14" s="47">
+      <c r="AC14" s="40">
         <v>10.3870155987132</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="40">
         <v>8549.1247000000003</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="40">
         <v>33.1503200555725</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="40">
         <v>1452.1089999999999</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="40">
         <v>2834.0621999999998</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="40">
         <v>22.774190296762299</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="40">
         <v>428.23842500000001</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="40">
         <v>457.64308749999998</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="40">
         <v>806.20230000000004</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="40">
         <v>5416.7</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="40">
         <v>3921.5</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="40">
         <v>1333.8130000000001</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="40">
         <v>16.430025930807101</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="40">
         <v>-1.64899913103087</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="40">
         <v>-0.26495671054202802</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="40">
         <v>0.100838361519167</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="40">
         <v>0.63124138742910696</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="40">
         <v>1.50721079999998</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="40">
         <v>83842.688476928801</v>
       </c>
       <c r="V15">
@@ -11994,84 +10339,84 @@
       <c r="X15">
         <v>0</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Y15" s="40">
         <v>9735.0210000000006</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="Z15" s="40">
         <v>1452.2159999999999</v>
       </c>
-      <c r="AA15" s="47">
+      <c r="AA15" s="40">
         <v>7.2</v>
       </c>
-      <c r="AB15" s="47">
+      <c r="AB15" s="40">
         <v>14.916341731568901</v>
       </c>
-      <c r="AC15" s="47">
+      <c r="AC15" s="40">
         <v>9.4302320797823906</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="40">
         <v>10558.035099999999</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="40">
         <v>32.1086591197258</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="40">
         <v>1369.2070000000001</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="40">
         <v>3390.0435000000002</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="40">
         <v>22.296350349656201</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="40">
         <v>442.90910937500001</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="40">
         <v>472.317403125</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="40">
         <v>916.0145</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="40">
         <v>5806.65</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="40">
         <v>4283.2</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="40">
         <v>1273.8219999999999</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="40">
         <v>15.0103343035245</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="40">
         <v>-1.5905069415095401</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="40">
         <v>-0.120774891739899</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="40">
         <v>0.188999926360991</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="40">
         <v>0.66301022153512401</v>
       </c>
-      <c r="S16" s="47" t="s">
+      <c r="S16" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T16" s="47">
+      <c r="T16" s="40">
         <v>1.00290199999997</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="40">
         <v>83982.639915964697</v>
       </c>
       <c r="V16">
@@ -12083,84 +10428,84 @@
       <c r="X16">
         <v>1</v>
       </c>
-      <c r="Y16" s="47">
+      <c r="Y16" s="40">
         <v>9549.4030000000002</v>
       </c>
-      <c r="Z16" s="47">
+      <c r="Z16" s="40">
         <v>1369.299</v>
       </c>
-      <c r="AA16" s="47">
+      <c r="AA16" s="40">
         <v>7.6</v>
       </c>
-      <c r="AB16" s="47">
+      <c r="AB16" s="40">
         <v>14.338142394870101</v>
       </c>
-      <c r="AC16" s="47">
+      <c r="AC16" s="40">
         <v>8.6759940777238</v>
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="40">
         <v>12634.845600000001</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="40">
         <v>32.841605915627497</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="40">
         <v>1121.5450000000001</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="40">
         <v>4149.4862000000003</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="40">
         <v>21.0824390666236</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="40">
         <v>457.57979375000002</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="40">
         <v>486.99171875000002</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="40">
         <v>935.51209999999901</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="40">
         <v>6196.6</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="40">
         <v>4220.3999999999996</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="40">
         <v>910.65700000000004</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="40">
         <v>10.6322413454116</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="40">
         <v>-1.5320147519881999</v>
       </c>
-      <c r="P17" s="47">
+      <c r="P17" s="40">
         <v>2.3406927062230101E-2</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="40">
         <v>0.28716146126242298</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="40">
         <v>0.69477905564114295</v>
       </c>
-      <c r="S17" s="47" t="s">
+      <c r="S17" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="40">
         <v>1.507412</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="40">
         <v>88638.265696552495</v>
       </c>
       <c r="V17">
@@ -12172,84 +10517,84 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17" s="47">
+      <c r="Y17" s="40">
         <v>7967.7150000000001</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="40">
         <v>1122.319</v>
       </c>
-      <c r="AA17" s="47" t="s">
+      <c r="AA17" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="AB17" s="47">
+      <c r="AB17" s="40">
         <v>14.076118435461099</v>
       </c>
-      <c r="AC17" s="47">
+      <c r="AC17" s="40">
         <v>7.4042226523132104</v>
       </c>
     </row>
     <row r="18" spans="1:29">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="40">
         <v>8267.5177000000003</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="40">
         <v>27.964744484308799</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="40">
         <v>1036.3789999999999</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="40">
         <v>2311.9902000000002</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="40">
         <v>16.972438354588501</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="40">
         <v>462.47867187499997</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="40">
         <v>493.79218281250002</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="40">
         <v>513.25509999999997</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="40">
         <v>6528.9</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="40">
         <v>4339</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="40">
         <v>926.35</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="40">
         <v>11.000814655244101</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="40">
         <v>-1.5046112250059001</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="40">
         <v>2.1292820107235599E-2</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="40">
         <v>0.38063931737712098</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="40">
         <v>0.76112386363512097</v>
       </c>
-      <c r="S18" s="47" t="s">
+      <c r="S18" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="40">
         <v>1.1034024</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="40">
         <v>79484.277322623806</v>
       </c>
       <c r="V18">
@@ -12261,84 +10606,84 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18" s="47">
+      <c r="Y18" s="40">
         <v>7794.2420000000002</v>
       </c>
-      <c r="Z18" s="47">
+      <c r="Z18" s="40">
         <v>1037.126</v>
       </c>
-      <c r="AA18" s="47" t="s">
+      <c r="AA18" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AB18" s="47">
+      <c r="AB18" s="40">
         <v>13.296725967707999</v>
       </c>
-      <c r="AC18" s="47">
+      <c r="AC18" s="40">
         <v>6.2080919403414097</v>
       </c>
     </row>
     <row r="19" spans="1:29">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="40">
         <v>8536.9004000000004</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="40">
         <v>35.780916455344801</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="40">
         <v>1142.921</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="40">
         <v>3054.5812000000001</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="40">
         <v>18.475066166503598</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="40">
         <v>467.37754999999999</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="40">
         <v>500.59264687500001</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="40">
         <v>550.05539999999996</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="40">
         <v>4550.09</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="40">
         <v>4280.1000000000004</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="40">
         <v>607.21100000000001</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="40">
         <v>7.4893939177158497</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="40">
         <v>-1.47720769802359</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="40">
         <v>1.9178713152241001E-2</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="40">
         <v>0.246018874436256</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="40">
         <v>0.82746867162910098</v>
       </c>
-      <c r="S19" s="47" t="s">
+      <c r="S19" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T19" s="47">
+      <c r="T19" s="40">
         <v>0.29989969999997301</v>
       </c>
-      <c r="U19" s="47">
+      <c r="U19" s="40">
         <v>82979.900913762598</v>
       </c>
       <c r="V19">
@@ -12350,84 +10695,84 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19" s="47">
+      <c r="Y19" s="40">
         <v>8524.4629999999997</v>
       </c>
-      <c r="Z19" s="47">
+      <c r="Z19" s="40">
         <v>1143.598</v>
       </c>
-      <c r="AA19" s="47">
+      <c r="AA19" s="40">
         <v>7.6</v>
       </c>
-      <c r="AB19" s="47">
+      <c r="AB19" s="40">
         <v>13.407542504436901</v>
       </c>
-      <c r="AC19" s="47">
+      <c r="AC19" s="40">
         <v>6.4432683319111899</v>
       </c>
     </row>
     <row r="20" spans="1:29">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="40">
         <v>10632.1186</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="40">
         <v>31.948419950845899</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="40">
         <v>1197.866</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="40">
         <v>3396.7939000000001</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="40">
         <v>19.173053804835</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="40">
         <v>472.276428125</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="40">
         <v>507.39311093750001</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="40">
         <v>712.94079999999997</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="40">
         <v>9266.7000000000007</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="40">
         <v>4472.3</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="40">
         <v>592.94200000000001</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="40">
         <v>7.0359413954360397</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="40">
         <v>-1.4498041710412899</v>
       </c>
-      <c r="P20" s="47">
+      <c r="P20" s="40">
         <v>1.70646061972465E-2</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="40">
         <v>0.272576959172801</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="40">
         <v>0.893813479623082</v>
       </c>
-      <c r="S20" s="47">
+      <c r="S20" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T20" s="47">
+      <c r="T20" s="40">
         <v>1.4043029999999801</v>
       </c>
-      <c r="U20" s="47">
+      <c r="U20" s="40">
         <v>82113.339919295002</v>
       </c>
       <c r="V20">
@@ -12439,84 +10784,84 @@
       <c r="X20">
         <v>1</v>
       </c>
-      <c r="Y20" s="47">
+      <c r="Y20" s="40">
         <v>8430.69</v>
       </c>
-      <c r="Z20" s="47">
+      <c r="Z20" s="40">
         <v>1199.9590000000001</v>
       </c>
-      <c r="AA20" s="47">
+      <c r="AA20" s="40">
         <v>8.6</v>
       </c>
-      <c r="AB20" s="47">
+      <c r="AB20" s="40">
         <v>14.2083981263693</v>
       </c>
-      <c r="AC20" s="47">
+      <c r="AC20" s="40">
         <v>6.70553844273332</v>
       </c>
     </row>
     <row r="21" spans="1:29">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="40">
         <v>13447.5969</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="40">
         <v>32.704632156247897</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="40">
         <v>1236.0329999999999</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="40">
         <v>4397.9871000000003</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="40">
         <v>17.344646111438099</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="40">
         <v>477.17530625000001</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="40">
         <v>514.19357500000001</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="40">
         <v>786.53070000000002</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="40">
         <v>10469.5</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="40">
         <v>4706</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="40">
         <v>533.33500000000004</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="40">
         <v>6.3483842737998799</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="40">
         <v>-1.42240064405898</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="40">
         <v>1.49504992422519E-2</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="40">
         <v>0.38564518425480998</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="40">
         <v>0.96015828761706001</v>
       </c>
-      <c r="S21" s="47" t="s">
+      <c r="S21" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T21" s="47">
+      <c r="T21" s="40">
         <v>10.4015088</v>
       </c>
-      <c r="U21" s="47">
+      <c r="U21" s="40">
         <v>81201.583847499802</v>
       </c>
       <c r="V21">
@@ -12528,84 +10873,84 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="47">
+      <c r="Y21" s="40">
         <v>8597.8320000000003</v>
       </c>
-      <c r="Z21" s="47">
+      <c r="Z21" s="40">
         <v>1236.973</v>
       </c>
-      <c r="AA21" s="47" t="s">
+      <c r="AA21" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AB21" s="47">
+      <c r="AB21" s="40">
         <v>14.376100858914199</v>
       </c>
-      <c r="AC21" s="47">
+      <c r="AC21" s="40">
         <v>5.8488569061733298</v>
       </c>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="40">
         <v>9309.0908999999992</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="40">
         <v>27.547689968308301</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="40">
         <v>1301.269</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="40">
         <v>2564.4395</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="40">
         <v>15.0746586791683</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="40">
         <v>503.32656093750001</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="40">
         <v>533.04744531250003</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="40">
         <v>756.12139999999999</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="40">
         <v>9517.5</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="40">
         <v>4874.5</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="40">
         <v>607.42100000000005</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="40">
         <v>7.4907330971667703</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="40">
         <v>-1.4274686013245801</v>
       </c>
-      <c r="P22" s="47">
+      <c r="P22" s="40">
         <v>2.29507831477615E-2</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="40">
         <v>0.42883280790482597</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="40">
         <v>1.0670274832582001</v>
       </c>
-      <c r="S22" s="47">
+      <c r="S22" s="40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T22" s="47">
+      <c r="T22" s="40">
         <v>2.9263714999999699</v>
       </c>
-      <c r="U22" s="47">
+      <c r="U22" s="40">
         <v>76965.402159633406</v>
       </c>
       <c r="V22">
@@ -12617,84 +10962,84 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="47">
+      <c r="Y22" s="40">
         <v>9738.4740000000002</v>
       </c>
-      <c r="Z22" s="47">
+      <c r="Z22" s="40">
         <v>1302.768</v>
       </c>
-      <c r="AA22" s="47">
+      <c r="AA22" s="40">
         <v>11.8</v>
       </c>
-      <c r="AB22" s="47">
+      <c r="AB22" s="40">
         <v>13.362144828850999</v>
       </c>
-      <c r="AC22" s="47">
+      <c r="AC22" s="40">
         <v>8.1223978594945301</v>
       </c>
     </row>
     <row r="23" spans="1:29">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="40">
         <v>10047.966</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="40">
         <v>33.904440958498498</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="40">
         <v>1580.6389999999999</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="40">
         <v>3406.7067000000002</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="40">
         <v>16.278304252803601</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="40">
         <v>529.47781562499995</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="40">
         <v>551.90131562500005</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="40">
         <v>852.67349999999999</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="40">
         <v>11814.7</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="40">
         <v>5953</v>
       </c>
-      <c r="L23" s="47" t="s">
+      <c r="L23" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="40">
         <v>627.923</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="40">
         <v>7.6985387656699196</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="40">
         <v>-1.4325365585901799</v>
       </c>
-      <c r="P23" s="47">
+      <c r="P23" s="40">
         <v>3.0951067053271001E-2</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="40">
         <v>0.45625390070977501</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="40">
         <v>1.1738966788993299</v>
       </c>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T23" s="47">
+      <c r="T23" s="40">
         <v>1.507412</v>
       </c>
-      <c r="U23" s="47">
+      <c r="U23" s="40">
         <v>82007.872140875203</v>
       </c>
       <c r="V23">
@@ -12706,84 +11051,84 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23" s="47">
+      <c r="Y23" s="40">
         <v>10669.976000000001</v>
       </c>
-      <c r="Z23" s="47">
+      <c r="Z23" s="40">
         <v>1582.258</v>
       </c>
-      <c r="AA23" s="47">
+      <c r="AA23" s="40">
         <v>11.2</v>
       </c>
-      <c r="AB23" s="47">
+      <c r="AB23" s="40">
         <v>14.813894614195901</v>
       </c>
-      <c r="AC23" s="47">
+      <c r="AC23" s="40">
         <v>8.4860309041650801</v>
       </c>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="40">
         <v>11998.0692</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="40">
         <v>31.554387100884501</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="40">
         <v>1559.0920000000001</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="40">
         <v>3785.9171999999999</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="40">
         <v>16.676822003727199</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="40">
         <v>555.62907031249995</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="40">
         <v>570.75518593749996</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="40">
         <v>904.02430000000004</v>
       </c>
-      <c r="J24" s="47">
+      <c r="J24" s="40">
         <v>9358.1</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="40">
         <v>6627.2</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M24" s="47">
+      <c r="M24" s="40">
         <v>656.70899999999995</v>
       </c>
-      <c r="N24" s="47">
+      <c r="N24" s="40">
         <v>7.7985857285818199</v>
       </c>
-      <c r="O24" s="47">
+      <c r="O24" s="40">
         <v>-1.43760451585578</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="40">
         <v>3.8951350958780599E-2</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="40">
         <v>0.537000092493641</v>
       </c>
-      <c r="R24" s="47">
+      <c r="R24" s="40">
         <v>1.28076587454047</v>
       </c>
-      <c r="S24" s="47">
+      <c r="S24" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T24" s="47">
+      <c r="T24" s="40">
         <v>0.90240200000000204</v>
       </c>
-      <c r="U24" s="47">
+      <c r="U24" s="40">
         <v>79908.744813100595</v>
       </c>
       <c r="V24">
@@ -12795,84 +11140,84 @@
       <c r="X24">
         <v>1</v>
       </c>
-      <c r="Y24" s="47">
+      <c r="Y24" s="40">
         <v>11173.978999999999</v>
       </c>
-      <c r="Z24" s="47">
+      <c r="Z24" s="40">
         <v>1560.761</v>
       </c>
-      <c r="AA24" s="47">
+      <c r="AA24" s="40">
         <v>11.2</v>
       </c>
-      <c r="AB24" s="47">
+      <c r="AB24" s="40">
         <v>13.9528810641223</v>
       </c>
-      <c r="AC24" s="47">
+      <c r="AC24" s="40">
         <v>7.5347481743145801</v>
       </c>
     </row>
     <row r="25" spans="1:29">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="40">
         <v>15616.0239</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="40">
         <v>28.796869989421602</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="40">
         <v>1747.35</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="40">
         <v>4496.9260999999997</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="40">
         <v>15.813854869062601</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="40">
         <v>581.78032499999995</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="40">
         <v>589.60905624999998</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="40">
         <v>809.45269999999903</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="40">
         <v>8186.7</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="40">
         <v>6816</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="40">
         <v>618.72699999999998</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="40">
         <v>7.2122295051125098</v>
       </c>
-      <c r="O25" s="47">
+      <c r="O25" s="40">
         <v>-1.44267247312138</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="40">
         <v>4.6951634864290201E-2</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="40">
         <v>0.61802457737154903</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="40">
         <v>1.3876350701816</v>
       </c>
-      <c r="S25" s="47">
+      <c r="S25" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T25" s="47">
+      <c r="T25" s="40">
         <v>2.7234648000000101</v>
       </c>
-      <c r="U25" s="47">
+      <c r="U25" s="40">
         <v>85197.982801309699</v>
       </c>
       <c r="V25">
@@ -12884,84 +11229,84 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25" s="47">
+      <c r="Y25" s="40">
         <v>12566.465</v>
       </c>
-      <c r="Z25" s="47">
+      <c r="Z25" s="40">
         <v>1748.81</v>
       </c>
-      <c r="AA25" s="47" t="s">
+      <c r="AA25" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="AB25" s="47">
+      <c r="AB25" s="40">
         <v>13.904865051547899</v>
       </c>
-      <c r="AC25" s="47">
+      <c r="AC25" s="40">
         <v>5.1834750329755801</v>
       </c>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="40">
         <v>10431.358</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="40">
         <v>26.559859224465299</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="40">
         <v>1643.596</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="40">
         <v>2770.5540000000001</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="40">
         <v>13.8914399024574</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="40">
         <v>617.08042343750003</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="40">
         <v>637.29082500000004</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="40">
         <v>915.57460000000003</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="40">
         <v>5802.5</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="40">
         <v>7592.6</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="40">
         <v>767.55799999999999</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="40">
         <v>8.7838658242574503</v>
       </c>
-      <c r="O26" s="47">
+      <c r="O26" s="40">
         <v>-1.42798175747862</v>
       </c>
-      <c r="P26" s="47">
+      <c r="P26" s="40">
         <v>7.4056471731725804E-2</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="40">
         <v>0.71595098449764805</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="40">
         <v>1.48871107443727</v>
       </c>
-      <c r="S26" s="47">
+      <c r="S26" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T26" s="47">
+      <c r="T26" s="40">
         <v>2.3170399999999902</v>
       </c>
-      <c r="U26" s="47">
+      <c r="U26" s="40">
         <v>75532.052723799803</v>
       </c>
       <c r="V26">
@@ -12973,84 +11318,84 @@
       <c r="X26">
         <v>0</v>
       </c>
-      <c r="Y26" s="47">
+      <c r="Y26" s="40">
         <v>12746.522000000001</v>
       </c>
-      <c r="Z26" s="47">
+      <c r="Z26" s="40">
         <v>1645.4069999999999</v>
       </c>
-      <c r="AA26" s="47">
+      <c r="AA26" s="40">
         <v>12.1</v>
       </c>
-      <c r="AB26" s="47">
+      <c r="AB26" s="40">
         <v>12.8944664277832</v>
       </c>
-      <c r="AC26" s="47">
+      <c r="AC26" s="40">
         <v>8.7771371666086093</v>
       </c>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="40">
         <v>11114.911700000001</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="40">
         <v>32.894207337697502</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="40">
         <v>1828.9380000000001</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="40">
         <v>3656.1621</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="40">
         <v>15.790643274716899</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="40">
         <v>652.380521875</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="40">
         <v>684.97259374999999</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="40">
         <v>901.29679999999996</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="40">
         <v>7413</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="40">
         <v>845.6</v>
       </c>
-      <c r="N27" s="47">
+      <c r="N27" s="40">
         <v>9.3594209112883906</v>
       </c>
-      <c r="O27" s="47">
+      <c r="O27" s="40">
         <v>-1.41329104183586</v>
       </c>
-      <c r="P27" s="47">
+      <c r="P27" s="40">
         <v>0.101161308599162</v>
       </c>
-      <c r="Q27" s="47">
+      <c r="Q27" s="40">
         <v>0.78911494040410102</v>
       </c>
-      <c r="R27" s="47">
+      <c r="R27" s="40">
         <v>1.58978707869294</v>
       </c>
-      <c r="S27" s="47">
+      <c r="S27" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T27" s="47">
+      <c r="T27" s="40">
         <v>1.4065099999999799</v>
       </c>
-      <c r="U27" s="47">
+      <c r="U27" s="40">
         <v>79627.943860312604</v>
       </c>
       <c r="V27">
@@ -13062,84 +11407,84 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27" s="47">
+      <c r="Y27" s="40">
         <v>13612.004999999999</v>
       </c>
-      <c r="Z27" s="47">
+      <c r="Z27" s="40">
         <v>1830.6690000000001</v>
       </c>
-      <c r="AA27" s="47">
+      <c r="AA27" s="40">
         <v>12.1</v>
       </c>
-      <c r="AB27" s="47">
+      <c r="AB27" s="40">
         <v>13.4362131074739</v>
       </c>
-      <c r="AC27" s="47">
+      <c r="AC27" s="40">
         <v>8.1088975272741006</v>
       </c>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="40">
         <v>13595.7955</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="40">
         <v>31.5172392818059</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="40">
         <v>1814.635</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="40">
         <v>4285.0194000000001</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="40">
         <v>16.033699603445601</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="40">
         <v>687.68062031249997</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="40">
         <v>732.65436250000005</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="40">
         <v>889.93409999999994</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="40">
         <v>4627.3</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="40">
         <v>8208</v>
       </c>
-      <c r="L28" s="47" t="s">
+      <c r="L28" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="40">
         <v>893.53399999999999</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="40">
         <v>9.4201777061817609</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="40">
         <v>-1.3986003261930999</v>
       </c>
-      <c r="P28" s="47">
+      <c r="P28" s="40">
         <v>0.12826614546659701</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="40">
         <v>0.84831988559419702</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="40">
         <v>1.6908630829486</v>
       </c>
-      <c r="S28" s="47">
+      <c r="S28" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T28" s="47">
+      <c r="T28" s="40">
         <v>0.50070029999995702</v>
       </c>
-      <c r="U28" s="47">
+      <c r="U28" s="40">
         <v>78194.021283584996</v>
       </c>
       <c r="V28">
@@ -13151,84 +11496,84 @@
       <c r="X28">
         <v>1</v>
       </c>
-      <c r="Y28" s="47">
+      <c r="Y28" s="40">
         <v>14096.004000000001</v>
       </c>
-      <c r="Z28" s="47">
+      <c r="Z28" s="40">
         <v>1816.0889999999999</v>
       </c>
-      <c r="AA28" s="47">
+      <c r="AA28" s="40">
         <v>11.9</v>
       </c>
-      <c r="AB28" s="47">
+      <c r="AB28" s="40">
         <v>12.873400149432401</v>
       </c>
-      <c r="AC28" s="47">
+      <c r="AC28" s="40">
         <v>6.5456567068841203</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="40">
         <v>19236.792600000001</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="40">
         <v>30.6636762305167</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="40">
         <v>1944.989</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="40">
         <v>5898.7078000000001</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="40">
         <v>14.7904001768344</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="40">
         <v>722.98071875000005</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="40">
         <v>780.33613124999999</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="40">
         <v>1077.6514999999999</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="40">
         <v>4302.3999999999996</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="40">
         <v>8935.2000000000007</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="40">
         <v>716.24800000000005</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="40">
         <v>7.6466775640355698</v>
       </c>
-      <c r="O29" s="47">
+      <c r="O29" s="40">
         <v>-1.3839096105503399</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="40">
         <v>0.15537098233403299</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="40">
         <v>0.96626395672244603</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="40">
         <v>1.79193908720427</v>
       </c>
-      <c r="S29" s="47">
+      <c r="S29" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="40">
         <v>2.8255755999999899</v>
       </c>
-      <c r="U29" s="47">
+      <c r="U29" s="40">
         <v>84131.938766794206</v>
       </c>
       <c r="V29">
@@ -13240,84 +11585,84 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29" s="47">
+      <c r="Y29" s="40">
         <v>13513.732</v>
       </c>
-      <c r="Z29" s="47">
+      <c r="Z29" s="40">
         <v>1946.338</v>
       </c>
-      <c r="AA29" s="47">
+      <c r="AA29" s="40">
         <v>10.5</v>
       </c>
-      <c r="AB29" s="47">
+      <c r="AB29" s="40">
         <v>14.392685899054401</v>
       </c>
-      <c r="AC29" s="47">
+      <c r="AC29" s="40">
         <v>5.6020331580639899</v>
       </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="40">
         <v>11786.1667</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="40">
         <v>26.6513437316307</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="40">
         <v>1809.2650000000001</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="40">
         <v>3141.1718000000001</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="40">
         <v>14.077410396679101</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="40">
         <v>711.11949062500003</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="40">
         <v>762.53419843749998</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="40">
         <v>1012.3973999999999</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="40">
         <v>3953.2</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="40">
         <v>9986.7999999999993</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="40">
         <v>13684.6375074511</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="40">
         <v>851.63400000000001</v>
       </c>
-      <c r="N30" s="47">
+      <c r="N30" s="40">
         <v>9.0508400759364491</v>
       </c>
-      <c r="O30" s="47">
+      <c r="O30" s="40">
         <v>-1.3340804028017701</v>
       </c>
-      <c r="P30" s="47">
+      <c r="P30" s="40">
         <v>0.14675649665631099</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="40">
         <v>1.0323245206401199</v>
       </c>
-      <c r="R30" s="47">
+      <c r="R30" s="40">
         <v>1.65736972199262</v>
       </c>
-      <c r="S30" s="47">
+      <c r="S30" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="40">
         <v>1.81072099999999</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U30" s="40">
         <v>76940.857629715902</v>
       </c>
       <c r="V30">
@@ -13329,84 +11674,84 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30" s="47">
+      <c r="Y30" s="40">
         <v>13351.482</v>
       </c>
-      <c r="Z30" s="47">
+      <c r="Z30" s="40">
         <v>1810.2439999999999</v>
       </c>
-      <c r="AA30" s="47">
+      <c r="AA30" s="40">
         <v>10.1</v>
       </c>
-      <c r="AB30" s="47">
+      <c r="AB30" s="40">
         <v>13.5510424985032</v>
       </c>
-      <c r="AC30" s="47">
+      <c r="AC30" s="40">
         <v>8.5897088151654906</v>
       </c>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="40">
         <v>13070.952499999999</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="40">
         <v>32.549800024137497</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="40">
         <v>2058.002</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="40">
         <v>4254.5689000000002</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="40">
         <v>14.306323849835501</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="40">
         <v>699.2582625</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="40">
         <v>744.73226562499997</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="40">
         <v>1140.5934</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="40">
         <v>4448.2</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="40">
         <v>9572.4</v>
       </c>
-      <c r="L31" s="47" t="s">
+      <c r="L31" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="40">
         <v>706.26400000000001</v>
       </c>
-      <c r="N31" s="47">
+      <c r="N31" s="40">
         <v>7.3012997761737202</v>
       </c>
-      <c r="O31" s="47">
+      <c r="O31" s="40">
         <v>-1.2842511950532101</v>
       </c>
-      <c r="P31" s="47">
+      <c r="P31" s="40">
         <v>0.138142010978588</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="40">
         <v>1.12961574907731</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="40">
         <v>1.52280035678098</v>
       </c>
-      <c r="S31" s="47">
+      <c r="S31" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="40">
         <v>0.80200159999999099</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="40">
         <v>81490.483538358705</v>
       </c>
       <c r="V31">
@@ -13418,84 +11763,84 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31" s="47">
+      <c r="Y31" s="40">
         <v>14433.227999999999</v>
       </c>
-      <c r="Z31" s="47" t="s">
+      <c r="Z31" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="AA31" s="47" t="s">
+      <c r="AA31" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="AB31" s="47">
+      <c r="AB31" s="40">
         <v>14.258778424341401</v>
       </c>
-      <c r="AC31" s="47">
+      <c r="AC31" s="40">
         <v>8.7261689612903108</v>
       </c>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="40">
         <v>14909.986500000001</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="40">
         <v>30.597878140265301</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="40">
         <v>2065.7719999999999</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="40">
         <v>4562.1395000000002</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="40">
         <v>14.421559572639</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="40">
         <v>687.39703437499998</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="40">
         <v>726.93033281249996</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="40">
         <v>1296.3257000000001</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="40">
         <v>5634.4</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="40">
         <v>9610</v>
       </c>
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="40">
         <v>677.51099999999997</v>
       </c>
-      <c r="N32" s="47">
+      <c r="N32" s="40">
         <v>6.9461178649405397</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="40">
         <v>-1.23442198730464</v>
       </c>
-      <c r="P32" s="47">
+      <c r="P32" s="40">
         <v>0.129527525300866</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="40">
         <v>1.1480710367913101</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="40">
         <v>1.38823099156934</v>
       </c>
-      <c r="S32" s="47">
+      <c r="S32" s="40">
         <v>4.8</v>
       </c>
-      <c r="T32" s="47">
+      <c r="T32" s="40">
         <v>0.70140079999998495</v>
       </c>
-      <c r="U32" s="47">
+      <c r="U32" s="40">
         <v>80441.581748697296</v>
       </c>
       <c r="V32">
@@ -13507,84 +11852,84 @@
       <c r="X32">
         <v>1</v>
       </c>
-      <c r="Y32" s="47">
+      <c r="Y32" s="40">
         <v>13677.123</v>
       </c>
-      <c r="Z32" s="47">
+      <c r="Z32" s="40">
         <v>2067.0259999999998</v>
       </c>
-      <c r="AA32" s="47">
+      <c r="AA32" s="40">
         <v>9.9</v>
       </c>
-      <c r="AB32" s="47">
+      <c r="AB32" s="40">
         <v>15.103848960048101</v>
       </c>
-      <c r="AC32" s="47">
+      <c r="AC32" s="40">
         <v>8.6943452296217707</v>
       </c>
     </row>
     <row r="33" spans="1:29">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="40">
         <v>22052.430700000001</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="40">
         <v>31.1423184746705</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="40">
         <v>2259.4059999999999</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="40">
         <v>6867.6382000000003</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="40">
         <v>14.0846307502564</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="40">
         <v>675.53580624999995</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="40">
         <v>709.12840000000006</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="40">
         <v>1277.2171000000001</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="40">
         <v>5629.3</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="40">
         <v>9745.9</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="40">
         <v>14683.373134745099</v>
       </c>
-      <c r="M33" s="47">
+      <c r="M33" s="40">
         <v>595.70399999999995</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="40">
         <v>5.90137820080996</v>
       </c>
-      <c r="O33" s="47">
+      <c r="O33" s="40">
         <v>-1.18459277955608</v>
       </c>
-      <c r="P33" s="47">
+      <c r="P33" s="40">
         <v>0.120913039623143</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="40">
         <v>1.4744377140048901</v>
       </c>
-      <c r="R33" s="47">
+      <c r="R33" s="40">
         <v>1.2536616263577001</v>
       </c>
-      <c r="S33" s="47">
+      <c r="S33" s="40">
         <v>4.8</v>
       </c>
-      <c r="T33" s="47">
+      <c r="T33" s="40">
         <v>2.0127251999999798</v>
       </c>
-      <c r="U33" s="47">
+      <c r="U33" s="40">
         <v>85808.319573896806</v>
       </c>
       <c r="V33">
@@ -13596,84 +11941,84 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33" s="47">
+      <c r="Y33" s="40">
         <v>14467.056</v>
       </c>
-      <c r="Z33" s="47">
+      <c r="Z33" s="40">
         <v>2260.1570000000002</v>
       </c>
-      <c r="AA33" s="47">
+      <c r="AA33" s="40">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB33" s="47">
+      <c r="AB33" s="40">
         <v>15.6175935172989</v>
       </c>
-      <c r="AC33" s="47">
+      <c r="AC33" s="40">
         <v>5.7917293443756304</v>
       </c>
     </row>
     <row r="34" spans="1:29">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="40">
         <v>13180.8572</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="40">
         <v>26.6263024228804</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="40">
         <v>2192.0859999999998</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="40">
         <v>3509.5749000000001</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="40">
         <v>13.821772227970801</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="40">
         <v>706.00309218749999</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="40">
         <v>743.33975781250001</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="40">
         <v>1236.4840999999999</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="40">
         <v>3684.2</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="40">
         <v>10283.799999999999</v>
       </c>
-      <c r="L34" s="47" t="s">
+      <c r="L34" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="40">
         <v>677.82399999999996</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="40">
         <v>6.7699190924434802</v>
       </c>
-      <c r="O34" s="47">
+      <c r="O34" s="40">
         <v>-1.15923274258996</v>
       </c>
-      <c r="P34" s="47">
+      <c r="P34" s="40">
         <v>0.12108612719916</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="40">
         <v>1.5163956391539499</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="40">
         <v>1.4430361845659501</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="40">
         <v>4.8</v>
       </c>
-      <c r="T34" s="47">
+      <c r="T34" s="40">
         <v>1.3055074999999801</v>
       </c>
-      <c r="U34" s="47">
+      <c r="U34" s="40">
         <v>81064.715679704401</v>
       </c>
       <c r="V34">
@@ -13685,84 +12030,84 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" s="47">
+      <c r="Y34" s="40">
         <v>14641.941000000001</v>
       </c>
-      <c r="Z34" s="47">
+      <c r="Z34" s="40">
         <v>2193.2330000000002</v>
       </c>
-      <c r="AA34" s="47">
+      <c r="AA34" s="40">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AB34" s="47">
+      <c r="AB34" s="40">
         <v>14.9712801055543</v>
       </c>
-      <c r="AC34" s="47">
+      <c r="AC34" s="40">
         <v>9.3809080945054202</v>
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="40">
         <v>14727.760899999999</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="40">
         <v>32.675459852148997</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="40">
         <v>2230.4380000000001</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="40">
         <v>4812.3635999999997</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="40">
         <v>13.9300543367555</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="40">
         <v>736.47037812500002</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="40">
         <v>777.55111562499997</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="40">
         <v>1344.6657</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="40">
         <v>3249.6</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="40">
         <v>10041</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="40">
         <v>14310.8655411134</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="40">
         <v>687.88199999999995</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="40">
         <v>6.49363571175848</v>
       </c>
-      <c r="O35" s="47">
+      <c r="O35" s="40">
         <v>-1.13387270562384</v>
       </c>
-      <c r="P35" s="47">
+      <c r="P35" s="40">
         <v>0.121259214775176</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="40">
         <v>1.69259606539343</v>
       </c>
-      <c r="R35" s="47">
+      <c r="R35" s="40">
         <v>1.6324107427742001</v>
       </c>
-      <c r="S35" s="47">
+      <c r="S35" s="40">
         <v>4.8</v>
       </c>
-      <c r="T35" s="47">
+      <c r="T35" s="40">
         <v>1.3052059999999901</v>
       </c>
-      <c r="U35" s="47">
+      <c r="U35" s="40">
         <v>88591.801892285701</v>
       </c>
       <c r="V35">
@@ -13774,84 +12119,84 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35" s="47">
+      <c r="Y35" s="40">
         <v>14549.374</v>
       </c>
-      <c r="Z35" s="47">
+      <c r="Z35" s="40">
         <v>2231.4859999999999</v>
       </c>
-      <c r="AA35" s="47">
+      <c r="AA35" s="40">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AB35" s="47">
+      <c r="AB35" s="40">
         <v>15.330130354749301</v>
       </c>
-      <c r="AC35" s="47">
+      <c r="AC35" s="40">
         <v>9.1301434693986607</v>
       </c>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="40">
         <v>16389.294000000002</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="40">
         <v>30.469238028190802</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="40">
         <v>2232.0300000000002</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="40">
         <v>4993.6930000000002</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="40">
         <v>13.649101270172901</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="40">
         <v>766.93766406249995</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="40">
         <v>811.76247343750003</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="40">
         <v>1467.4686999999999</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="40">
         <v>4683.3999999999996</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="40">
         <v>10080.700000000001</v>
       </c>
-      <c r="L36" s="47">
+      <c r="L36" s="40">
         <v>15214.6630474089</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="40">
         <v>709.51</v>
       </c>
-      <c r="N36" s="47">
+      <c r="N36" s="40">
         <v>6.4226137995086496</v>
       </c>
-      <c r="O36" s="47">
+      <c r="O36" s="40">
         <v>-1.10851266865772</v>
       </c>
-      <c r="P36" s="47">
+      <c r="P36" s="40">
         <v>0.121432302351192</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="40">
         <v>2.1367584934420099</v>
       </c>
-      <c r="R36" s="47">
+      <c r="R36" s="40">
         <v>1.8217853009824601</v>
       </c>
-      <c r="S36" s="47">
+      <c r="S36" s="40">
         <v>4.8</v>
       </c>
-      <c r="T36" s="47">
+      <c r="T36" s="40">
         <v>0.70160119999997905</v>
       </c>
-      <c r="U36" s="47">
+      <c r="U36" s="40">
         <v>90140.250070685695</v>
       </c>
       <c r="V36">
@@ -13863,84 +12208,84 @@
       <c r="X36">
         <v>1</v>
       </c>
-      <c r="Y36" s="47">
+      <c r="Y36" s="40">
         <v>15200.475</v>
       </c>
-      <c r="Z36" s="47">
+      <c r="Z36" s="40">
         <v>2232.8620000000001</v>
       </c>
-      <c r="AA36" s="47">
+      <c r="AA36" s="40">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AB36" s="47">
+      <c r="AB36" s="40">
         <v>14.6839490213299</v>
       </c>
-      <c r="AC36" s="47">
+      <c r="AC36" s="40">
         <v>8.9538249786720492</v>
       </c>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="40">
         <v>25234.714400000001</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="40">
         <v>31.240701103397502</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="40">
         <v>2299.7139999999999</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="40">
         <v>7883.5016999999998</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="40">
         <v>13.3800808583247</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="40">
         <v>797.40494999999999</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="40">
         <v>845.97383124999999</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="40">
         <v>1523.5843</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="40">
         <v>4053.7</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="40">
         <v>10680.4</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="40">
         <v>15232.8615449396</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="40">
         <v>724.43399999999997</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="40">
         <v>6.2663165052341299</v>
       </c>
-      <c r="O37" s="47">
+      <c r="O37" s="40">
         <v>-1.0831526316916</v>
       </c>
-      <c r="P37" s="47">
+      <c r="P37" s="40">
         <v>0.121605389927209</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="40">
         <v>2.2381893988657802</v>
       </c>
-      <c r="R37" s="47">
+      <c r="R37" s="40">
         <v>2.0111598591907098</v>
       </c>
-      <c r="S37" s="47">
+      <c r="S37" s="40">
         <v>4.8</v>
       </c>
-      <c r="T37" s="47">
+      <c r="T37" s="40">
         <v>2.0133293999999902</v>
       </c>
-      <c r="U37" s="47">
+      <c r="U37" s="40">
         <v>94257.575477356106</v>
       </c>
       <c r="V37">
@@ -13952,84 +12297,84 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37" s="47">
+      <c r="Y37" s="40">
         <v>16054.341</v>
       </c>
-      <c r="Z37" s="47">
+      <c r="Z37" s="40">
         <v>2300.5050000000001</v>
       </c>
-      <c r="AA37" s="47">
+      <c r="AA37" s="40">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AB37" s="47">
+      <c r="AB37" s="40">
         <v>14.324561811662001</v>
       </c>
-      <c r="AC37" s="47">
+      <c r="AC37" s="40">
         <v>6.0376522430545103</v>
       </c>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="40">
         <v>15093.3424</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="40">
         <v>26.441543524514501</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="40">
         <v>2300.0709999999999</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="40">
         <v>3990.9126999999999</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="40">
         <v>13.0221852174208</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="40">
         <v>824.94731875000002</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="40">
         <v>895.81000937500005</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="40">
         <v>1186.2965999999999</v>
       </c>
-      <c r="J38" s="47">
+      <c r="J38" s="40">
         <v>4457.2</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="40">
         <v>11086.4</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="40">
         <v>14867.0077</v>
       </c>
-      <c r="M38" s="47">
+      <c r="M38" s="40">
         <v>840.75</v>
       </c>
-      <c r="N38" s="47">
+      <c r="N38" s="40">
         <v>7.11527438469908</v>
       </c>
-      <c r="O38" s="47">
+      <c r="O38" s="40">
         <v>-1.0786779328551901</v>
       </c>
-      <c r="P38" s="47">
+      <c r="P38" s="40">
         <v>8.1646432473907807E-2</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="40">
         <v>2.5309185097909102</v>
       </c>
-      <c r="R38" s="47">
+      <c r="R38" s="40">
         <v>2.0438843041389401</v>
       </c>
-      <c r="S38" s="47">
+      <c r="S38" s="40">
         <v>4.8</v>
       </c>
-      <c r="T38" s="47">
+      <c r="T38" s="40">
         <v>2.2159377999999799</v>
       </c>
-      <c r="U38" s="47">
+      <c r="U38" s="40">
         <v>90608.086415441096</v>
       </c>
       <c r="V38">
@@ -14041,84 +12386,84 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38" s="47">
+      <c r="Y38" s="40">
         <v>16407.063999999998</v>
       </c>
-      <c r="Z38" s="47">
+      <c r="Z38" s="40">
         <v>2301.2649999999999</v>
       </c>
-      <c r="AA38" s="47" t="s">
+      <c r="AA38" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="AB38" s="47">
+      <c r="AB38" s="40">
         <v>14.018784835605</v>
       </c>
-      <c r="AC38" s="47">
+      <c r="AC38" s="40">
         <v>7.8597342362020504</v>
       </c>
     </row>
     <row r="39" spans="1:29">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="40">
         <v>13306.2503</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="40">
         <v>37.227983754371401</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="40">
         <v>2783.049</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="40">
         <v>4953.6486999999997</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="40">
         <v>13.702044681911801</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="40">
         <v>852.48968749999995</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="40">
         <v>945.6461875</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="40">
         <v>841.28809999999999</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="40">
         <v>4192.8999999999996</v>
       </c>
-      <c r="K39" s="47">
+      <c r="K39" s="40">
         <v>12235.1</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="40">
         <v>14853.17</v>
       </c>
-      <c r="M39" s="47">
+      <c r="M39" s="40">
         <v>863.28399999999999</v>
       </c>
-      <c r="N39" s="47">
+      <c r="N39" s="40">
         <v>7.35180866105609</v>
       </c>
-      <c r="O39" s="47">
+      <c r="O39" s="40">
         <v>-1.0742032340187899</v>
       </c>
-      <c r="P39" s="47">
+      <c r="P39" s="40">
         <v>4.1687475020606803E-2</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="40">
         <v>2.94446701848524</v>
       </c>
-      <c r="R39" s="47">
+      <c r="R39" s="40">
         <v>2.0766087490871699</v>
       </c>
-      <c r="S39" s="47" t="s">
+      <c r="S39" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T39" s="47">
+      <c r="T39" s="40">
         <v>1.8101179999999899</v>
       </c>
-      <c r="U39" s="47">
+      <c r="U39" s="40">
         <v>94196.170139415204</v>
       </c>
       <c r="V39">
@@ -14130,84 +12475,84 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39" s="47">
+      <c r="Y39" s="40">
         <v>17214.618999999999</v>
       </c>
-      <c r="Z39" s="47">
+      <c r="Z39" s="40">
         <v>2784.0880000000002</v>
       </c>
-      <c r="AA39" s="47">
+      <c r="AA39" s="40">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AB39" s="47">
+      <c r="AB39" s="40">
         <v>16.166776621660901</v>
       </c>
-      <c r="AC39" s="47">
+      <c r="AC39" s="40">
         <v>6.3225031923531398</v>
       </c>
     </row>
     <row r="40" spans="1:29">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="40">
         <v>17403.662499999999</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="40">
         <v>29.905926985196398</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="40">
         <v>2807.97</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="40">
         <v>5204.7266</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="40">
         <v>13.9034642485578</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="40">
         <v>880.03205624999998</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="40">
         <v>995.48236562500006</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="40">
         <v>1227.5491999999999</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="40">
         <v>13179.5</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="40">
         <v>15121.094141506001</v>
       </c>
-      <c r="M40" s="47">
+      <c r="M40" s="40">
         <v>820.03399999999999</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="40">
         <v>6.7447689494240599</v>
       </c>
-      <c r="O40" s="47">
+      <c r="O40" s="40">
         <v>-1.06972853518238</v>
       </c>
-      <c r="P40" s="47">
+      <c r="P40" s="40">
         <v>1.72851756730593E-3</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="40">
         <v>3.2516952454250698</v>
       </c>
-      <c r="R40" s="47">
+      <c r="R40" s="40">
         <v>2.1093331940354001</v>
       </c>
-      <c r="S40" s="47" t="s">
+      <c r="S40" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="T40" s="47">
+      <c r="T40" s="40">
         <v>0.70150089999996301</v>
       </c>
-      <c r="U40" s="47">
+      <c r="U40" s="40">
         <v>90140.898433714901</v>
       </c>
       <c r="V40">
@@ -14219,84 +12564,84 @@
       <c r="X40">
         <v>1</v>
       </c>
-      <c r="Y40" s="47">
+      <c r="Y40" s="40">
         <v>18379.007000000001</v>
       </c>
-      <c r="Z40" s="47">
+      <c r="Z40" s="40">
         <v>2808.87</v>
       </c>
-      <c r="AA40" s="47">
+      <c r="AA40" s="40">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB40" s="47">
+      <c r="AB40" s="40">
         <v>15.2781377144043</v>
       </c>
-      <c r="AC40" s="47">
+      <c r="AC40" s="40">
         <v>7.0533958010275102</v>
       </c>
     </row>
     <row r="41" spans="1:29">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="40">
         <v>24845.777999999998</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="40">
         <v>31.752168919806</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="40">
         <v>2827.1439999999998</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="40">
         <v>7889.0734000000002</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="40">
         <v>13.588485623554201</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="40">
         <v>907.57442500000002</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="40">
         <v>1045.3185437499999</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="40">
         <v>1886.5323000000001</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="40">
         <v>5595.5</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="40">
         <v>13745.41</v>
       </c>
-      <c r="L41" s="47">
+      <c r="L41" s="40">
         <v>16393.9319583787</v>
       </c>
-      <c r="M41" s="47">
+      <c r="M41" s="40">
         <v>806.05700000000002</v>
       </c>
-      <c r="N41" s="47">
+      <c r="N41" s="40">
         <v>6.3336163877256899</v>
       </c>
-      <c r="O41" s="47">
+      <c r="O41" s="40">
         <v>-1.06525383634597</v>
       </c>
-      <c r="P41" s="47">
+      <c r="P41" s="40">
         <v>-3.8230439885994998E-2</v>
       </c>
-      <c r="Q41" s="47">
+      <c r="Q41" s="40">
         <v>3.6093548651908001</v>
       </c>
-      <c r="R41" s="47">
+      <c r="R41" s="40">
         <v>2.1420576389836299</v>
       </c>
-      <c r="S41" s="47">
+      <c r="S41" s="40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T41" s="47">
+      <c r="T41" s="40">
         <v>2.4189485999999798</v>
       </c>
-      <c r="U41" s="47">
+      <c r="U41" s="40">
         <v>100419.666568838</v>
       </c>
       <c r="V41">
@@ -14308,27 +12653,53 @@
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41" s="47">
+      <c r="Y41" s="40">
         <v>19134.928</v>
       </c>
-      <c r="Z41" s="47">
+      <c r="Z41" s="40">
         <v>2828.0459999999998</v>
       </c>
-      <c r="AA41" s="47">
+      <c r="AA41" s="40">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AB41" s="47">
+      <c r="AB41" s="40">
         <v>14.7747825338041</v>
       </c>
-      <c r="AC41" s="47">
+      <c r="AC41" s="40">
         <v>7.5929693165575296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="M43" t="s">
+        <v>252</v>
+      </c>
+      <c r="N43" s="48">
+        <v>10.2758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="M45">
+        <f>M41/N41 *N45</f>
+        <v>2113.8217924260007</v>
+      </c>
+      <c r="N45">
+        <f>N41+N43</f>
+        <v>16.609416387725691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="M47" t="s">
+        <v>253</v>
+      </c>
+      <c r="N47">
+        <f>M45-M41</f>
+        <v>1307.7647924260007</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
